--- a/ROOT_Updated/websites/15_one_dof_vibrations/15_plots.xlsx
+++ b/ROOT_Updated/websites/15_one_dof_vibrations/15_plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnesdentremont/Documents/GitHub/mechanics_textbook/ROOT_Updated/websites/15_one_dof_vibrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DFCD1D-14DC-B145-AE9C-7C1A9A4560A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389EEA5D-3A6D-0148-87A9-B0CF4ACF3061}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2180" windowWidth="27240" windowHeight="16440" xr2:uid="{B60F3BC6-536A-E843-89F8-8C57D3DD3CE4}"/>
+    <workbookView xWindow="300" yWindow="2160" windowWidth="27240" windowHeight="16440" xr2:uid="{B60F3BC6-536A-E843-89F8-8C57D3DD3CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="1dof free undamped" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="9.9502487562189053E-3"/>
+          <c:w val="1"/>
+          <c:h val="0.99004975124378114"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1443,7 +1453,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.73"/>
-          <c:min val="-0.5"/>
+          <c:min val="-0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2513,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15032CF-966D-D646-ADC5-74D63C4670D8}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ROOT_Updated/websites/15_one_dof_vibrations/15_plots.xlsx
+++ b/ROOT_Updated/websites/15_one_dof_vibrations/15_plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnesdentremont/Documents/GitHub/mechanics_textbook/ROOT_Updated/websites/15_one_dof_vibrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389EEA5D-3A6D-0148-87A9-B0CF4ACF3061}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE894C-BEFF-344E-B432-327D87903371}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="2160" windowWidth="27240" windowHeight="16440" xr2:uid="{B60F3BC6-536A-E843-89F8-8C57D3DD3CE4}"/>
   </bookViews>

--- a/ROOT_Updated/websites/15_one_dof_vibrations/15_plots.xlsx
+++ b/ROOT_Updated/websites/15_one_dof_vibrations/15_plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnesdentremont/Documents/GitHub/mechanics_textbook/ROOT_Updated/websites/15_one_dof_vibrations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3073AF-6C98-9048-B140-06ACA2B7AE75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85FEFF-46D8-7741-B11A-1684135A3A9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49280" yWindow="1140" windowWidth="30800" windowHeight="17400" activeTab="1" xr2:uid="{B60F3BC6-536A-E843-89F8-8C57D3DD3CE4}"/>
+    <workbookView xWindow="49280" yWindow="1140" windowWidth="30800" windowHeight="17400" activeTab="5" xr2:uid="{B60F3BC6-536A-E843-89F8-8C57D3DD3CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="1dof free undamped" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="critically damped" sheetId="3" r:id="rId3"/>
     <sheet name="underdamped" sheetId="4" r:id="rId4"/>
     <sheet name="undamped" sheetId="5" r:id="rId5"/>
+    <sheet name="all responses" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7599,6 +7600,5310 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="9.9502487562189053E-3"/>
+          <c:w val="1"/>
+          <c:h val="0.99004975124378114"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Undamped</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>undamped!$E$1:$E$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7200000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9600000000000011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3600000000000012</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5200000000000014</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6400000000000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8400000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8800000000000017</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1600000000000019</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.3600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4400000000000022</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.4800000000000022</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6400000000000023</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.7200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.7600000000000025</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.8400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.8800000000000026</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.9200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9600000000000026</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0400000000000027</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.0800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.1200000000000028</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.2400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2800000000000029</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.3200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.4400000000000031</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.4800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5200000000000031</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5600000000000032</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.6400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.6800000000000033</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.7200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.7600000000000033</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.8400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.8800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.9200000000000035</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.9600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0800000000000036</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.1200000000000037</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.1600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.2000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.2400000000000038</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.2800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.3200000000000038</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.3600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.4000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.4400000000000039</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.5600000000000041</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.6000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.6400000000000041</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.6800000000000042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.7200000000000042</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.7600000000000042</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.8000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.8400000000000043</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.8800000000000043</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.9200000000000044</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.9600000000000044</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0800000000000045</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.1200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.1600000000000046</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.2000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.2400000000000047</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.2800000000000047</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.3200000000000047</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.3600000000000048</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.4000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.4400000000000048</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.4800000000000049</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.5200000000000049</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.5600000000000049</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.7200000000000051</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.8000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.8400000000000052</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.8800000000000052</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.9200000000000053</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.9600000000000053</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0400000000000054</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0800000000000054</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.1200000000000054</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.1600000000000055</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.2000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.2400000000000055</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.2800000000000056</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.3200000000000056</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.3600000000000056</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.4400000000000057</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.4800000000000058</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.5200000000000058</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.5600000000000058</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.6000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.6400000000000059</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.6800000000000059</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7.720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7.760000000000006</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7.800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.8400000000000061</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.8800000000000061</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.9200000000000061</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.9600000000000062</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.0400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8.0800000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>undamped!$F$1:$F$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3846483267443013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7412498672712902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0739201760566388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3869278857913212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6846674026995467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97163079733529845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25237907066045473</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.46848702079647797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1863563940815727</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.8966371350105922</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.5947858707493672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.2763368318952026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.9369304181611446</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5723410849402253</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.1785043723708295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.7515429040094102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.2877911888077751</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.7838190677469212</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.2364536551489778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.6427996343177336</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-8.0002577776849275</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.3065415729965402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.5596918491882636</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.75808930839443</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-8.9004648839283256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.9859078579781695</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9.0138716870931859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.9841774981965479</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.8970152327626479</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.7529424318398572</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-8.5528806696904915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.2981096588604846</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7.9902590643862652</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-7.6312980794999152</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.2235228295125715</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.769541684448197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.27225857437677</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.7348544141718021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.1607667565103519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.5536678032669045</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.9174409159531498</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.2561557754566874</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.5740423499715597</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.8754638376370223</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.1648887569593254</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.44686236354256348</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.27402242403602806</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99315440323114901</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7059335834895095</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4078006104914174</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0942659304591622</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.7609385079800921</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.4035539136484037</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0180016018605214</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6003512042792867</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.1468776707785224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.6540850970517171</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.1187290864694424</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.537837503145937</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.9087294834660486</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.2290325844636456</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.4966979593603824</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.7100134631931816</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.8676146046991189</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.9684932744030377</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.0120041930779085</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.9978690393297995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.9261782299050019</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.7973903413314041</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.6123291765936507</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.3721784956053629</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.0784744431853959</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.733095722973248</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.3382515801370456</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.8964676697437532</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.4105699011857995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.8836663620046847</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.3191274367373911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.7205642479571335</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.0918055574122318</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.4368732750169744</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.7599567323533516</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0653858852454707</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3576036168187104</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.64113731820952458</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.9430071287630355E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.7994893793920208</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.5144346838099487</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.2196927744192276</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.9107524062074148</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.5831931558447834</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-4.2327136973084816</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-4.8551593156903419</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-5.4465484831939008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-6.0030983273249046</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-6.5212488283658301</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-6.9976855913531306</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-7.4293610468942779</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-7.8135139452117306</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-8.147687018718452</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-8.4297427001447787</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-8.6578767956742784</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-8.8306300256271726</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-8.9468973588703395</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-9.0059350812455339</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-9.0073655528019962</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-8.9511796234033962</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-8.8377366912574917</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-8.6677624039940699</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-8.4423440169964756</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-8.1629234386775238</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-7.8312880071863251</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-7.4495590575436132</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-7.0201783523368899</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-6.5458924627726311</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-6.0297351999935396</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-5.4750082090404213</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-4.8852598495911383</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-4.2642624985678301</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-3.6159884197982288</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-2.9445843550829442</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-2.254344999199124</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.5496855285099835</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.83511335890333305</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.11519931371192449</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.60545161395745861</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.3222297174648645</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.0305500630285547</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.7258818176546464</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.4037772310063183</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.0599000858275591</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.6900534349358072</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.2902064473613875</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.8565201919100911</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.3853721932220573</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.8733796032520011</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.3174208399523737</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.7146555547457449</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>8.0625428010627047</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>8.3588572877286627</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.601703613233326</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8.7895283898321104</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8.9211301799265996</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8.9956671811651461</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9.0126626111051831</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.9720077569937882</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.8739626711583082</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8.7191545075589154</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8.5085735101434938</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8.2435666786656903</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7.92582915248326</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7.5573933674510245</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7.1406160552672979</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.6781631684336205</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.1729928272565804</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.6283363979727596</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.047677823032191</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.4347313357559992</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.7934177019183561</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.127839140225559</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.4422530821155544</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.7410449387256728</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.0287000492270248</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.3097749899605029</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.41113157210201479</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1.1294082951328352</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-1.8404606592994712</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-2.5397403560122767</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-3.2227743815778482</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-3.8851936491580608</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-4.522760936015862</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-5.1313979872808249</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-5.7072116028628432</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-6.246518540646754</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-6.7458690766724239</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-7.2020690715955382</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-7.6122004022790861</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-7.9736396278230206</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-8.2840747706332518</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-8.5415201051883916</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-8.7443288599065827</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-8.8912037508638484</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-8.9812052799840849</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-9.0137577446206123</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-8.9886529200884695</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-8.9060513915918023</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-8.7664815270265848</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-8.5708360972291793</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-8.3203665652896763</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-8.0166750814588461</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-7.6617042348540618</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-7.2577246275182201</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-6.8073203503153472</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-6.3133724535675455</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-5.7790405181648206</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-5.2077424450297878</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-4.6031325922157142</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-3.9690783994858605</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-3.309635649897035</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-2.6290225266288414</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-1.9315926310062714</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-1.2218071343083934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6FC-2645-8692-4FC30489C673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Underdamped</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>underdamped!$E$1:$E$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7200000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9600000000000011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3600000000000012</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5200000000000014</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6400000000000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8400000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8800000000000017</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1600000000000019</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.3600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4400000000000022</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.4800000000000022</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6400000000000023</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.7200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.7600000000000025</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.8400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.8800000000000026</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.9200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9600000000000026</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0400000000000027</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.0800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.1200000000000028</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.2400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2800000000000029</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.3200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.4400000000000031</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.4800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5200000000000031</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5600000000000032</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.6400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.6800000000000033</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.7200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.7600000000000033</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.8400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.8800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.9200000000000035</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.9600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0800000000000036</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.1200000000000037</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.1600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.2000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.2400000000000038</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.2800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.3200000000000038</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.3600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.4000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.4400000000000039</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.5600000000000041</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.6000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.6400000000000041</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.6800000000000042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.7200000000000042</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.7600000000000042</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.8000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.8400000000000043</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.8800000000000043</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.9200000000000044</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.9600000000000044</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0800000000000045</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.1200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.1600000000000046</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.2000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.2400000000000047</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.2800000000000047</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.3200000000000047</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.3600000000000048</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.4000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.4400000000000048</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.4800000000000049</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.5200000000000049</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.5600000000000049</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.7200000000000051</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.8000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.8400000000000052</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.8800000000000052</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.9200000000000053</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.9600000000000053</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0400000000000054</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0800000000000054</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.1200000000000054</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.1600000000000055</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.2000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.2400000000000055</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.2800000000000056</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.3200000000000056</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.3600000000000056</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.4400000000000057</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.4800000000000058</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.5200000000000058</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.5600000000000058</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.6000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.6400000000000059</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.6800000000000059</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7.720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7.760000000000006</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7.800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.8400000000000061</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.8800000000000061</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.9200000000000061</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.9600000000000062</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.0400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8.0800000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>underdamped!$F$1:$F$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.396688352128562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7894641413983159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1822882866262523</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5789660935725527</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9831294960375145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.398221080396943</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82747992381807522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27392926383984878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.25963399517530095</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.77064794494473765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.2567925229852319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7159945772947183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.1464311842312509</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.546531267278028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.9149755731674731</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.2506950699229558</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.5528678387404984</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.8209145382567855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.0544925256216446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.2534887239053223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.4180113297213151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.5483804585365775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.6451178279801564</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4.7089355815600351</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.7407243565724473</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.7415407006575929</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.7125939414442435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.6552326130597743</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.5709305419916317</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.461272692903715</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.327940872571574</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.1726993871409022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.9973807444735159</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.803871489464083</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.5940982559312245</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.3700141140504183</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.1335852873466457</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.8867783080451801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.63154767413261</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.3698240658502532</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.1035031735709313</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.8344351831395067</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5644149588281753</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.2951729581089142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.0283669065156225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.76557425499391152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.50828543635175405</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.25789793176220421</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.5711152760642395E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.21707786114778607</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.43937793427362415</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65020644581106524</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.84869123471112251</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0340717372429127</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2056993801968858</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.363037256451165</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5056591130742978</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6332476852651236</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7455924122267004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8425865735311935</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9242238866546197</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9905946081439028</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0418811823261089</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.078353482585082</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.1003636910199961</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.108340862771342</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1027852214622986</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.084262232068129</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0533964971059389</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.0108655213454916</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9573933892938546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8937443985184217</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8207166904611582</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.739135918779444</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6498489934437464</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5537179368483283</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4516138860671972</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3444112731327742</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2329822128485857</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1181911251887779</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0008896168056043</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.88191164357981833</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.76206897352658687</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.64214696672898097</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.52290068632947562</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.40505135198389736</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.28928314458777304</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.17624036853692304</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.6524975296812131E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.9305550358397008E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.14073994240357313</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.23731454711368666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.32861436342743278</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.41427373744866036</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.49397672029226325</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.56745710023120421</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.63449812171390585</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.69493190529186744</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.74863858382224424</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.79554517148670145</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.83562418319461407</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.8688920228150081</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.89540715940792226</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.91526811120352569</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.92861125750844409</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.93560849900647558</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.9364647870689462</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.93141554270300075</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.92072398564925728</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.90467839389940674</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.88358931354579373</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.85778673840569641</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.82761727829018494</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.79344133411873852</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.75563029732420206</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.71456379015633575</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.67062696258455845</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.62420786052993893</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.57569487913167028</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.52547431368268371</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.47392801976120325</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.42143119294839509</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.3683502773650173</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.31504101109018529</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.26184661535093279</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.20909613319965037</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.15710292223494463</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.10616330477696226</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-5.6555377787157829E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-8.5379837310631795E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.7650157473579748E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.1791156296577933E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.12368850306653502</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.16316746183795158</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.20007531228581071</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.23428144406980686</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.26567730886128565</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.29417623591481978</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.31971311769133359</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.34224397259939465</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.36174539241469389</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.37821388236440978</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.39166510222304002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.40213301705967464</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.40966896650444451</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.41434066156506405</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.41623111812458674</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.41543753629046815</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.41207013474500431</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.40625094917059579</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.39811260369276735</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.38779706410240861</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.37545438138941056</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.36124143384606744</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.3453206756837725</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.32785889975422106</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.30902602158023751</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.28899389148521443</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.26793514116775402</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.24602207060327469</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.22342558067084595</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.20031415640514402</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.17685290526384212</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.1532026542836466</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.12951910947707018</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.10595208030031113</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8.2644771503621525E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.9733144162406597E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.7345347182985149E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.560122008432094E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-5.3881326213133431E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-2.5520695587401332E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-4.4703825913271614E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-6.2854466548146123E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-7.9899291220918822E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-9.5774782671812331E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.11042724631064904</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.12381276174804663</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.13589707493949935</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.1466554339472371</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-0.1560723715604676</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-0.16414143822076671</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-0.17086488887582571</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.17625332753158415</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.18032531339020322</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.18310693254976806</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.18463133930165265</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.18493827109386668</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.18407354123429981</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.18208851338762225</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.17903956187480616</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.17498752171606471</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.16999713226779406</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.16413647819329027</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.15747643137709072</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.15009009724532915</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.1420522687911058</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.13343889142620163</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-0.12432654159019486</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.11479192184684565</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-0.10491137498719115</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-9.476041944083119E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F6FC-2645-8692-4FC30489C673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Critically-damped</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'critically damped'!$E$1:$E$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7200000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9600000000000011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3600000000000012</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5200000000000014</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6400000000000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8400000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8800000000000017</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1600000000000019</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.3600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4400000000000022</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.4800000000000022</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6400000000000023</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.7200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.7600000000000025</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.8400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.8800000000000026</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.9200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9600000000000026</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0400000000000027</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.0800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.1200000000000028</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.2400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2800000000000029</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.3200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.4400000000000031</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.4800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5200000000000031</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5600000000000032</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.6400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.6800000000000033</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.7200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.7600000000000033</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.8400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.8800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.9200000000000035</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.9600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0800000000000036</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.1200000000000037</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.1600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.2000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.2400000000000038</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.2800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.3200000000000038</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.3600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.4000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.4400000000000039</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.5600000000000041</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.6000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.6400000000000041</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.6800000000000042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.7200000000000042</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.7600000000000042</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.8000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.8400000000000043</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.8800000000000043</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.9200000000000044</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.9600000000000044</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0800000000000045</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.1200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.1600000000000046</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.2000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.2400000000000047</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.2800000000000047</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.3200000000000047</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.3600000000000048</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.4000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.4400000000000048</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.4800000000000049</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.5200000000000049</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.5600000000000049</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.7200000000000051</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.8000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.8400000000000052</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.8800000000000052</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.9200000000000053</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.9600000000000053</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0400000000000054</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0800000000000054</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.1200000000000054</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.1600000000000055</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.2000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.2400000000000055</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.2800000000000056</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.3200000000000056</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.3600000000000056</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.4400000000000057</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.4800000000000058</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.5200000000000058</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.5600000000000058</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.6000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.6400000000000059</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.6800000000000059</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7.720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7.760000000000006</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7.800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.8400000000000061</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.8800000000000061</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.9200000000000061</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.9600000000000062</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.0400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8.0800000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'critically damped'!$F$1:$F$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6155817319331787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2607189448310567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9331393053327672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6307451853684549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3516002301781969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0939169590307043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8560453192440742</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.636462120215243</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4337612797998585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2466448205861083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0739145584079073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9144644298755602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7672734097939011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6313989731151977</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5059710595610107</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3901865022659707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2833038847677793</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1846387934106086</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0935594347610735</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0094825899732767</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93186988019704942</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86022431911525232</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79408713053460311</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73303481065175025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67667641618306307</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.62465106099291179</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57662560519031225</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.53229252189626375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49136792802180729</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45358976644706217</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.4187161279609794</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.38652370221649834</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.35680634778192993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32937377213201446</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30405031312608949</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.28067381417066828</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25909458586362882</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.23917444747099154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22078584209846402</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.20381101989183079</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18814128403588076</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1736762947236925</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.16032342663930357</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14799717583945973</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.13661861223646254</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.12611487417613584</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.11641870187448479</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.10746800672544937</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.9205473721851206E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.1578194443670741E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.4537328263526237E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.8037789599914018E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.2037959215561623E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.649941771221872E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.1386699515342077E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6667065773336842E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.231029471713388E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8288488137688754E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.4575892742197643E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1148735245100036E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.7985070137887739E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.5064639162927028E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.236874159144694E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.9880114475029636E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.7582822103803785E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.5462153963495888E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.3504530537916318E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.1697416353694418E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0029239710452028E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8489318582414593E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7067792216977091E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5755557992222152E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4544213129062868E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.3426000884769055E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2393760883331748E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1440883264610804E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0561266358663533E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.7492776142255686E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.9997175311529228E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.3077863658696412E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.6690533966222883E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.0794285517339853E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.5351362191819092E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.032691069790176E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.5688757392239911E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.1407202258736259E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.7454828727043425E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3806328112911885E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0438337556205394E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.7329290418833799E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.4459278184639499E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.1809922976925118E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.9364259877299407E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7106628292280313E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.5022571672030413E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.3098744939082441E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1322829034282577E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9683452032753807E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8170116324752294E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6773131395125503E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.5483551770931227E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.4293119739870359E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3194212472735826E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2179793211280873E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.124336620894235E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0378935135885823E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.5809646820227998E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8.8443451121282817E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.1643595460903604E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.5366537547737851E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.9572082780878955E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.4223126867193545E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.9285418227169099E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.4727338667867999E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.0519700918546346E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.663556173247407E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.3050049358169873E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.9740204275278107E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.6684832175253284E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.3864368245426705E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.1260751887409908E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.8857311067604963E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.6638655559270121E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.4590578392525472E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.2699964881242265E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.09547086442773E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.9343634083301715E-4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.7856424820817478E-4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.6483557640120666E-4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.5216241504201704E-4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4046361263095363E-4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.2966425689215361E-4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.19695195079223E-4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.1049259116156795E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.0199751705585888E-4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.4155575285113027E-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8.6916550649125343E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>8.0234088675749555E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.4065398794019281E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.8370980328404213E-5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.3114369559629039E-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.8261906232380652E-5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.378251801475599E-5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.9647521529254964E-5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.5830438681237677E-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.2306827108720873E-5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.9054123667813494E-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.6051499951563822E-5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.3279728917045569E-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.0721061766640779E-5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.8359114295139597E-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.6178761974890274E-5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.41660431071861E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.2308069419727576E-5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.0592943537678356E-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.9009682799847923E-5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.7548148932164489E-5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.6198983128108223E-5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.4953546120398021E-5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.3803862860185873E-5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.2742571449516958E-5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.1762876000048752E-5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.0858503116164046E-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.0023661723821251E-5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9.2530059879094406E-6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8.5416010806526264E-6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.8848915818641925E-6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.2786723087052136E-6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.7190613881575353E-6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.2024753997835018E-6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.7256064296011327E-6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.2854008881412284E-6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.8790399570496101E-6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.5039215390260442E-6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4.1576435955177951E-6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.8379887654721829E-6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.5429101666556355E-6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.2705182886192168E-6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.0190688933808444E-6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.786951846347268E-6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.572680805955579E-6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.3748837060127393E-6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.1922939697876329E-6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0237423995958135E-6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.8681496899426101E-6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.7245195162831487E-6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.5919321551437487E-6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.4695385947516999E-6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.3565550984613403E-6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.2522581861637954E-6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.1559800015442782E-6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.0671040355215716E-6</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9.8506117848510794E-7</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9.093260760504864E-7</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8.3941376499782114E-7</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.7487656785143869E-7</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.1530122621563612E-7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6.6030625451005834E-7</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6.0953949715956922E-7</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5.6267587359628956E-7</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.1941529663411625E-7</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.7948075088621687E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F6FC-2645-8692-4FC30489C673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Overdamped</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>overdamped!$E$1:$E$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7200000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9600000000000011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0400000000000009</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2400000000000011</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3600000000000012</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4400000000000013</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4800000000000013</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5200000000000014</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5600000000000014</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6400000000000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7200000000000015</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8400000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8800000000000017</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0400000000000018</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1600000000000019</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.3600000000000021</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4400000000000022</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.4800000000000022</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5200000000000022</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6400000000000023</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6800000000000024</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.7200000000000024</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.7600000000000025</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.8000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.8400000000000025</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.8800000000000026</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.9200000000000026</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9600000000000026</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.0000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.0400000000000027</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.0800000000000027</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.1200000000000028</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.1600000000000028</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.2400000000000029</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2800000000000029</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.3200000000000029</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.4400000000000031</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.4800000000000031</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5200000000000031</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5600000000000032</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.6000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.6400000000000032</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.6800000000000033</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.7200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.7600000000000033</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.8000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.8400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.8800000000000034</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.9200000000000035</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.9600000000000035</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.0000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.0400000000000036</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0800000000000036</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.1200000000000037</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.1600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.2000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.2400000000000038</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.2800000000000038</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.3200000000000038</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.3600000000000039</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.4000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.4400000000000039</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.5600000000000041</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.6000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.6400000000000041</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.6800000000000042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.7200000000000042</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.7600000000000042</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.8000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.8400000000000043</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.8800000000000043</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.9200000000000044</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.9600000000000044</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.0400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0800000000000045</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.1200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.1600000000000046</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.2000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.2400000000000047</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.2800000000000047</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.3200000000000047</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.3600000000000048</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.4000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.4400000000000048</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.4800000000000049</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.5200000000000049</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.5600000000000049</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.7200000000000051</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.8000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.8400000000000052</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.8800000000000052</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.9200000000000053</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.9600000000000053</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.0400000000000054</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.0800000000000054</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.1200000000000054</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>7.1600000000000055</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>7.2000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>7.2400000000000055</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.2800000000000056</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.3200000000000056</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7.3600000000000056</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>7.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>7.4400000000000057</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.4800000000000058</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.5200000000000058</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.5600000000000058</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.6000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.6400000000000059</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.6800000000000059</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7.720000000000006</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>7.760000000000006</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>7.800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>7.8400000000000061</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7.8800000000000061</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.9200000000000061</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.9600000000000062</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.0000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.0400000000000045</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>8.0800000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>overdamped!$F$1:$F$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="203"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4523524210798993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9962375272656487</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6147186701840521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2940487906998017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0230680274868127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7927151460310062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5956312804064257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4258385443287698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2784793641729082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1496050599641929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0360043685152549</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9350643613377854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.844657636131773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7630508173326709</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6888303393047834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6208422466086985</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5581433628391053</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4999616799943987</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4456642262348816</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3947309990824017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3467338181043078</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3013191676633502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.258194275936054</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2171158188371753</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1778807530079776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1403188757172396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1042867855109773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0696629790752665</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0363438697595599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0042405537460612</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97327618272875993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.94338382863116355</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91450474751848954</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88658696740029552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85958413884535878</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83345459886842843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.80816060790614974</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78366772728898515</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75994431077145819</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73696108867545718</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.71469082725049171</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.69310804913887558</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67218880349743537</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.65191047648771772</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63225163459890266</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.61319189468884816</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.59471181578141841</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.57679280859325266</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.55941705952151399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54256746643932419</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52622758414457527</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51038157771258597</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.49501418233141714</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.48011066846504435</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.46565681140567994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.45163886445187901</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.43804353509131871</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.42485796368258338</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.41206970422397476</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.39966670687339462</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.38763730194508311</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.37597018515909658</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.36465440396011417</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.35367934475520862</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.34303472094707854</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.33271056166106716</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.32269720108203992</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.31298526833163398</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.30356567782814842</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.29442962008091239</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.28556855287877914</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.27697419283876035</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.26863850728601701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.26055370644068609</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25271223589050068</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24510676933103454</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.23773020155775082</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.23057564169598085</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.22363640665656651</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.21690601480623165</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.21037817984286236</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.20404680486680415</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.19790597664006768</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.19194996002599637</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.1861731926025102</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.18057027944252424</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.17513598805555472</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.16986524348488502</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.16475312355498326</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.15979485426413775</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.15498580531752737</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.15032148579616397</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.14579753995734748</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.14140974316245303</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.13715399792804017</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.13302633009642778</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.12902288512202084</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.12513992446981101</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.12137382212259662</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.11772106119358815</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.11417823064117638</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.11074202208274719</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.10740922670452906</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.1041767322645554</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.10104152018591808</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.8000662737576141E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9.5051320300070963E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.2190738713580564E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.9416246705825222E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.6725253397414062E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.4115245882295103E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.1583786881044382E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.9128512464796782E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.6747129847690054E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.4437415245757338E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.2197211800265476E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.0024427563559158E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.7917033545526889E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6.5873061818864195E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.3890603681363206E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.1967807873511485E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.0102878849735558E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.8294075101673337E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.6539707531909802E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.4838137876656916E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.3187777175903964E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.1587084289610299E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.0034564458553921E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.8528767908492171E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.7068288496331004E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.5651762397038192E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.4277866830074619E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.2945318824153721E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.1652874019176341E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.0399325504221061E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.9183502690506147E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.8004270218269444E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.6860526896546252E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.5751204674854785E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.4675267645828713E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.3631711077866028E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.2619560476890089E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.1637870676347421E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.0685724954592163E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.976223417883269E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.8866535974841689E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.7997793921653528E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.7155196770497613E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.6337957687237991E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.5545313517611672E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.4776524074579968E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.4030871447126827E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.3307659329859155E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.2606212372782899E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.192587555064749E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.1266013551270325E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.0626010182269276E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.0005267795649963E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.9403206729710132E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.8819264767739725E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.8252896613011826E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.7703573379573467E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.7170782098361387E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.6654025238181245E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.615282024110291E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.5666699071838274E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.5195207780680431E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.473790607959634E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.4294366931077088E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.3864176149361584E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.3446932013661643E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.3042244893027069E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.2649736882500378E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.2269041450221648E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.1899803095153632E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.1541677015107794E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.1194328784761115E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.0857434043362969E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.0530678191840594E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.0213756099020111E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9.9063718166889411E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.6082383032334226E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9.3190771555935643E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.0386183492847227E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.7665999862432693E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8.5027680502609421E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.2468761697794355E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.9986853878236362E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>7.7579639388588705E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7.5244870323635344E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.2980366429152219E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7.078401306594222E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.8653759235142268E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.6587615662959815E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.4583652943048676E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6.2639999734790822E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.0754841015801123E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5.8926416387022566E-3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.7153018428830757E-3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5.5432991106610825E-3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.3764728224319292E-3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5.2146671924585717E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F6FC-2645-8692-4FC30489C673}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1810018447"/>
+        <c:axId val="1810021167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1810018447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.1"/>
+          <c:min val="-0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="34925" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810021167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1810021167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="34925" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810018447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7881964813969341"/>
+          <c:y val="3.0472049202804868E-2"/>
+          <c:w val="0.21180351860306579"/>
+          <c:h val="0.2450260508481216"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7760,6 +13065,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10379,6 +15724,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10570,6 +16431,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD468D2-DE2E-CA47-BA44-08AADA23AD65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0423D137-52BF-4044-B9DD-5A3386243293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12975,7 +18879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A990BD-9EAA-8D41-8093-3A953DAD7AB5}">
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
@@ -21473,4 +27377,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855E9D8-851A-3A43-92EB-7F78BAB263D9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>